--- a/biology/Médecine/Salomon_Neumann/Salomon_Neumann.xlsx
+++ b/biology/Médecine/Salomon_Neumann/Salomon_Neumann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salomon Neumann (né le 22 octobre 1819 à Pyritz, mort le 20 septembre 1908 à Berlin) est un médecin allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Salomon Neumann est le quatrième des huit enfants du détaillant Hirsch Zwi Neumann et de Betty Bela. Son frère Julius est devenu un fabricant de cigares, son neveu Hugo Neumann un pédiatre important à Berlin. Un autre neveu de Salomon Neumann est le bibliophile Gotthilf Weisstein (de).
 Salomon Neumann étudie la médecine à Berlin et est promu en 1842 à Halle. Il poursuit ensuite ses études à Vienne et à Paris avant de devenir médecin généraliste à Berlin en 1845.
